--- a/WIP/Documents/Test/Test Checklist/UJD_VN_Checklist_GUI_v1.0_EN.xlsx
+++ b/WIP/Documents/Test/Test Checklist/UJD_VN_Checklist_GUI_v1.0_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Pham\Desktop\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Documents\Test\Test Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,12 +29,6 @@
     <t>Project Code : UJD_VN</t>
   </si>
   <si>
-    <t>Reviewer(s) : MinhPTSE02300</t>
-  </si>
-  <si>
-    <t>Effort spent on review (man-hour) : 2</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -323,9 +317,6 @@
     <t>All fonts to be the same?</t>
   </si>
   <si>
-    <t>Review date : 10/8/2014</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -361,6 +352,15 @@
   </si>
   <si>
     <t>Does the site look good on 640 x 480, 600x800 etc.?</t>
+  </si>
+  <si>
+    <t>Review date : 30/7/2014</t>
+  </si>
+  <si>
+    <t>Reviewer(s) : NamLDSE02316, DatPTSE02336</t>
+  </si>
+  <si>
+    <t>Effort spent on review (man-hour) : 4</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1583,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1659,28 +1659,28 @@
     <row r="8" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="F9" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1691,25 +1691,25 @@
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="18"/>
       <c r="F11" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1745,10 +1745,10 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1758,25 +1758,25 @@
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1786,12 +1786,12 @@
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19"/>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -1810,25 +1810,25 @@
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="18"/>
       <c r="F20" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -1838,25 +1838,25 @@
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
       <c r="F22" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1879,22 +1879,22 @@
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
       <c r="F25" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1905,25 +1905,25 @@
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
       <c r="F27" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2009,25 +2009,25 @@
     </row>
     <row r="35" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
       <c r="F35" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="37" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -2074,11 +2074,11 @@
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="28"/>
@@ -2087,26 +2087,26 @@
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="28"/>
       <c r="F41" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="28"/>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -2126,26 +2126,26 @@
     </row>
     <row r="44" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="28"/>
       <c r="F44" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="28"/>
@@ -2154,11 +2154,11 @@
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="28"/>
@@ -2167,10 +2167,10 @@
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -2180,25 +2180,25 @@
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="28"/>
       <c r="F48" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -2219,26 +2219,26 @@
     </row>
     <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="28"/>
       <c r="F51" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="28"/>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -2286,22 +2286,22 @@
     </row>
     <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B56" s="27"/>
       <c r="C56" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="28"/>
       <c r="F56" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -2312,25 +2312,25 @@
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
       <c r="E58" s="28"/>
       <c r="F58" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -2351,26 +2351,26 @@
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="28"/>
       <c r="F61" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="28"/>
@@ -2379,25 +2379,25 @@
     </row>
     <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="28"/>
       <c r="F63" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -2425,27 +2425,27 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
